--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743BF2D5-13EE-4977-A576-AA28DFEFD7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{CC5CA64C-AC79-4569-95FD-2B26D191F227}"/>
+    <workbookView xWindow="6675" yWindow="2655" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
     <sheet name="TwoStarDatas" sheetId="2" r:id="rId2"/>
     <sheet name="ThreeStarDatas" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -194,10 +193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t># MagicAttack : 마법공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t># MagicDefence : 마법방어력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,12 +228,52 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># MagicalAttack : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법공격력</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># MagicalAttack : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법공격력</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># Critical : 크리티컬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +306,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -704,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4C8E14-103F-45BD-8EC0-1B8C46FF35BA}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N17" activeCellId="1" sqref="N11 N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -723,11 +765,12 @@
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -753,19 +796,22 @@
         <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -797,13 +843,16 @@
         <v>8</v>
       </c>
       <c r="K2" s="4">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
         <v>104</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -835,13 +884,16 @@
         <v>6</v>
       </c>
       <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
         <v>93</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -873,13 +925,16 @@
         <v>6</v>
       </c>
       <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
         <v>80</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -911,13 +966,16 @@
         <v>8</v>
       </c>
       <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>180</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -949,13 +1007,16 @@
         <v>6</v>
       </c>
       <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
         <v>79</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -987,13 +1048,16 @@
         <v>6</v>
       </c>
       <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>80</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1025,13 +1089,16 @@
         <v>6</v>
       </c>
       <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
         <v>79</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1063,13 +1130,16 @@
         <v>6</v>
       </c>
       <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
         <v>91</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1101,13 +1171,16 @@
         <v>6</v>
       </c>
       <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>83</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1139,13 +1212,16 @@
         <v>6</v>
       </c>
       <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
         <v>84</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1177,10 +1253,16 @@
         <v>6</v>
       </c>
       <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1212,10 +1294,13 @@
         <v>11</v>
       </c>
       <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1247,10 +1332,13 @@
         <v>6</v>
       </c>
       <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1282,10 +1370,13 @@
         <v>12</v>
       </c>
       <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1317,10 +1408,13 @@
         <v>6</v>
       </c>
       <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1352,10 +1446,13 @@
         <v>6</v>
       </c>
       <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1387,10 +1484,13 @@
         <v>8</v>
       </c>
       <c r="K18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1422,10 +1522,13 @@
         <v>13</v>
       </c>
       <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1457,10 +1560,13 @@
         <v>6</v>
       </c>
       <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1492,10 +1598,13 @@
         <v>6</v>
       </c>
       <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1527,10 +1636,13 @@
         <v>8</v>
       </c>
       <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1562,10 +1674,13 @@
         <v>6</v>
       </c>
       <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1597,10 +1712,13 @@
         <v>6</v>
       </c>
       <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1632,10 +1750,13 @@
         <v>6</v>
       </c>
       <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1667,10 +1788,13 @@
         <v>8</v>
       </c>
       <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1702,10 +1826,13 @@
         <v>6</v>
       </c>
       <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1737,10 +1864,13 @@
         <v>10</v>
       </c>
       <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1772,10 +1902,13 @@
         <v>6</v>
       </c>
       <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -1807,11 +1940,14 @@
         <v>6</v>
       </c>
       <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="L30" s="4">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1820,11 +1956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C97459E-BC15-4BD8-AE6C-9D6A3B65C547}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1838,12 +1974,14 @@
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -1869,19 +2007,22 @@
         <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1913,13 +2054,16 @@
         <v>14</v>
       </c>
       <c r="K2" s="4">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
         <v>104</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1951,13 +2095,16 @@
         <v>11</v>
       </c>
       <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
         <v>93</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1989,13 +2136,16 @@
         <v>11</v>
       </c>
       <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
         <v>80</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2027,13 +2177,16 @@
         <v>14</v>
       </c>
       <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>180</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2065,13 +2218,16 @@
         <v>11</v>
       </c>
       <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
         <v>79</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2103,13 +2259,16 @@
         <v>11</v>
       </c>
       <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>80</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2141,13 +2300,16 @@
         <v>11</v>
       </c>
       <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
         <v>79</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2179,13 +2341,16 @@
         <v>11</v>
       </c>
       <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
         <v>91</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -2217,13 +2382,16 @@
         <v>11</v>
       </c>
       <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>83</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2255,13 +2423,16 @@
         <v>11</v>
       </c>
       <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
         <v>84</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2293,10 +2464,16 @@
         <v>11</v>
       </c>
       <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -2328,10 +2505,13 @@
         <v>22</v>
       </c>
       <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -2363,10 +2543,13 @@
         <v>11</v>
       </c>
       <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2398,10 +2581,13 @@
         <v>24</v>
       </c>
       <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2433,10 +2619,13 @@
         <v>11</v>
       </c>
       <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -2468,10 +2657,13 @@
         <v>11</v>
       </c>
       <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -2503,10 +2695,13 @@
         <v>14</v>
       </c>
       <c r="K18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2538,10 +2733,13 @@
         <v>26</v>
       </c>
       <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2573,10 +2771,13 @@
         <v>11</v>
       </c>
       <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -2608,10 +2809,13 @@
         <v>11</v>
       </c>
       <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -2643,10 +2847,13 @@
         <v>14</v>
       </c>
       <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -2678,10 +2885,13 @@
         <v>11</v>
       </c>
       <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -2713,10 +2923,13 @@
         <v>11</v>
       </c>
       <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -2748,10 +2961,13 @@
         <v>11</v>
       </c>
       <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -2783,10 +2999,13 @@
         <v>14</v>
       </c>
       <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -2818,10 +3037,13 @@
         <v>11</v>
       </c>
       <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -2853,10 +3075,13 @@
         <v>20</v>
       </c>
       <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -2888,10 +3113,13 @@
         <v>11</v>
       </c>
       <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -2923,11 +3151,14 @@
         <v>11</v>
       </c>
       <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="L30" s="4">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2937,11 +3168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47759B0E-05DD-4FFC-BDE9-085A8C2815BF}">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2955,12 +3186,13 @@
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2986,19 +3218,22 @@
         <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -3030,13 +3265,16 @@
         <v>24</v>
       </c>
       <c r="K2" s="4">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4">
         <v>104</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3068,13 +3306,16 @@
         <v>18</v>
       </c>
       <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
         <v>93</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3106,13 +3347,16 @@
         <v>18</v>
       </c>
       <c r="K4" s="4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
         <v>80</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3144,13 +3388,16 @@
         <v>24</v>
       </c>
       <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>180</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3182,13 +3429,16 @@
         <v>18</v>
       </c>
       <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
         <v>79</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3220,13 +3470,16 @@
         <v>18</v>
       </c>
       <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>80</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3258,13 +3511,16 @@
         <v>18</v>
       </c>
       <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
         <v>79</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3296,13 +3552,16 @@
         <v>18</v>
       </c>
       <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
         <v>91</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3334,13 +3593,16 @@
         <v>18</v>
       </c>
       <c r="K10" s="4">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>83</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3372,13 +3634,16 @@
         <v>18</v>
       </c>
       <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
         <v>84</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -3410,10 +3675,16 @@
         <v>18</v>
       </c>
       <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -3445,10 +3716,13 @@
         <v>33</v>
       </c>
       <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -3480,10 +3754,13 @@
         <v>18</v>
       </c>
       <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -3515,10 +3792,13 @@
         <v>36</v>
       </c>
       <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3550,10 +3830,13 @@
         <v>18</v>
       </c>
       <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -3585,10 +3868,13 @@
         <v>18</v>
       </c>
       <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -3620,10 +3906,13 @@
         <v>24</v>
       </c>
       <c r="K18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -3655,10 +3944,13 @@
         <v>39</v>
       </c>
       <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -3690,10 +3982,13 @@
         <v>18</v>
       </c>
       <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -3725,10 +4020,13 @@
         <v>18</v>
       </c>
       <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -3760,10 +4058,13 @@
         <v>24</v>
       </c>
       <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -3795,10 +4096,13 @@
         <v>18</v>
       </c>
       <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -3830,10 +4134,13 @@
         <v>18</v>
       </c>
       <c r="K24" s="4">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -3865,10 +4172,13 @@
         <v>18</v>
       </c>
       <c r="K25" s="4">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -3900,10 +4210,13 @@
         <v>24</v>
       </c>
       <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -3935,10 +4248,13 @@
         <v>18</v>
       </c>
       <c r="K27" s="4">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3970,10 +4286,13 @@
         <v>30</v>
       </c>
       <c r="K28" s="4">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -4005,10 +4324,13 @@
         <v>18</v>
       </c>
       <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -4040,11 +4362,14 @@
         <v>18</v>
       </c>
       <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="L30" s="4">
         <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB808B-10D8-4C23-84EC-FC1C1867D42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="2655" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
@@ -20,12 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -272,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,11 +741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" activeCellId="1" sqref="N11 N17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1370,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="K15" s="4">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L15" s="4">
         <v>118</v>
@@ -1947,16 +1942,17 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3158,7 +3154,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3168,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4369,7 +4365,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB808B-10D8-4C23-84EC-FC1C1867D42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00260C08-CC6F-494B-94B2-7C90FF408F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N21" sqref="N18:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1409,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1484,8 +1484,9 @@
       <c r="L18" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1522,8 +1523,9 @@
       <c r="L19" s="4">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1598,8 +1600,9 @@
       <c r="L21" s="4">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00260C08-CC6F-494B-94B2-7C90FF408F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3EEA96-2BD0-4CF9-82C9-22E06F4BCC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,16 @@
     <sheet name="TwoStarDatas" sheetId="2" r:id="rId2"/>
     <sheet name="ThreeStarDatas" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -745,7 +751,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N18:N21"/>
+      <selection activeCell="M30" sqref="M26:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1484,6 +1490,7 @@
       <c r="L18" s="4">
         <v>100</v>
       </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1523,6 +1530,7 @@
       <c r="L19" s="4">
         <v>111</v>
       </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1600,6 +1608,7 @@
       <c r="L21" s="4">
         <v>88</v>
       </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1791,6 +1800,7 @@
       <c r="L26" s="4">
         <v>104</v>
       </c>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1829,6 +1839,7 @@
       <c r="L27" s="4">
         <v>94</v>
       </c>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -1867,6 +1878,7 @@
       <c r="L28" s="4">
         <v>101</v>
       </c>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -1943,6 +1955,7 @@
       <c r="L30" s="4">
         <v>87</v>
       </c>
+      <c r="M30" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3EEA96-2BD0-4CF9-82C9-22E06F4BCC69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
     <sheet name="TwoStarDatas" sheetId="2" r:id="rId2"/>
     <sheet name="ThreeStarDatas" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -273,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M26:M30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1771,7 +1770,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="4">
-        <v>138</v>
+        <v>999</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1800,7 +1799,9 @@
       <c r="L26" s="4">
         <v>104</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1810,7 +1811,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="4">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1839,7 +1840,9 @@
       <c r="L27" s="4">
         <v>94</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -1849,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="4">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1878,7 +1881,9 @@
       <c r="L28" s="4">
         <v>101</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="4">
+        <v>65</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -1888,7 +1893,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="D29" s="4">
         <v>80</v>
@@ -1916,6 +1921,9 @@
       </c>
       <c r="L29" s="4">
         <v>85</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1926,7 +1934,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="4">
-        <v>66</v>
+        <v>999</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -1955,10 +1963,12 @@
       <c r="L30" s="4">
         <v>87</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1968,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,7 +3180,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3180,7 +3190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4391,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164EB164-9C38-49D3-BBAE-75B015238E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
@@ -20,12 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -272,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -746,11 +741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1770,7 +1765,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="4">
-        <v>999</v>
+        <v>138</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1799,9 +1794,7 @@
       <c r="L26" s="4">
         <v>104</v>
       </c>
-      <c r="M26" s="4">
-        <v>138</v>
-      </c>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1811,7 +1804,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="4">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1840,9 +1833,7 @@
       <c r="L27" s="4">
         <v>94</v>
       </c>
-      <c r="M27" s="4">
-        <v>65</v>
-      </c>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -1852,7 +1843,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="4">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1881,9 +1872,7 @@
       <c r="L28" s="4">
         <v>101</v>
       </c>
-      <c r="M28" s="4">
-        <v>65</v>
-      </c>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -1893,7 +1882,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="4">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
         <v>80</v>
@@ -1922,9 +1911,7 @@
       <c r="L29" s="4">
         <v>85</v>
       </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
@@ -1968,7 +1955,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1978,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3167,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3190,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4391,7 +4378,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterAbilityDataSheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164EB164-9C38-49D3-BBAE-75B015238E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-216" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
-    <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
-    <sheet name="TwoStarDatas" sheetId="2" r:id="rId2"/>
-    <sheet name="ThreeStarDatas" sheetId="1" r:id="rId3"/>
+    <sheet name="OneStarExcelDatas" sheetId="3" r:id="rId1"/>
+    <sheet name="TwoStarExcelDatas" sheetId="2" r:id="rId2"/>
+    <sheet name="ThreeStarExcelDatas" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -267,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,31 +740,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -806,9 +805,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -847,9 +846,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -888,9 +887,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -929,9 +928,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -970,9 +969,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1011,9 +1010,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -1052,9 +1051,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -1093,9 +1092,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -1134,9 +1133,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -1175,9 +1174,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -1216,9 +1215,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -1257,9 +1256,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -1295,9 +1294,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1333,9 +1332,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1371,9 +1370,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -1409,9 +1408,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -1447,9 +1446,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -1487,9 +1486,9 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
@@ -1527,9 +1526,9 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -1565,9 +1564,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -1605,9 +1604,9 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>28</v>
@@ -1643,9 +1642,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -1681,9 +1680,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>30</v>
@@ -1719,9 +1718,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>29</v>
@@ -1757,9 +1756,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>32</v>
@@ -1796,9 +1795,9 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -1835,9 +1834,9 @@
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>34</v>
@@ -1874,9 +1873,9 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -1913,9 +1912,9 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
@@ -1955,7 +1954,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1965,32 +1964,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" customWidth="1"/>
+    <col min="14" max="14" width="38.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2031,9 +2030,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -2072,9 +2071,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -2113,9 +2112,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -2154,9 +2153,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2195,9 +2194,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -2236,9 +2235,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -2277,9 +2276,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -2318,9 +2317,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -2359,9 +2358,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -2400,9 +2399,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -2441,9 +2440,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -2482,9 +2481,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -2520,9 +2519,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -2558,9 +2557,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -2596,9 +2595,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -2634,9 +2633,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -2672,9 +2671,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -2710,9 +2709,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
@@ -2748,9 +2747,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -2786,9 +2785,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -2824,9 +2823,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>28</v>
@@ -2862,9 +2861,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -2900,9 +2899,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>30</v>
@@ -2938,9 +2937,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>29</v>
@@ -2976,9 +2975,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>32</v>
@@ -3014,9 +3013,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -3052,9 +3051,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>34</v>
@@ -3090,9 +3089,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -3128,9 +3127,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
@@ -3167,7 +3166,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3177,31 +3176,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" customWidth="1"/>
-    <col min="14" max="14" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" customWidth="1"/>
+    <col min="14" max="14" width="38.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -3242,9 +3241,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -3283,9 +3282,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -3324,9 +3323,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -3365,9 +3364,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -3406,9 +3405,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -3447,9 +3446,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -3488,9 +3487,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -3529,9 +3528,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -3570,9 +3569,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -3611,9 +3610,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -3652,9 +3651,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -3693,9 +3692,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -3731,9 +3730,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -3769,9 +3768,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -3807,9 +3806,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -3845,9 +3844,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -3883,9 +3882,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -3921,9 +3920,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
@@ -3959,9 +3958,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -3997,9 +3996,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -4035,9 +4034,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>28</v>
@@ -4073,9 +4072,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -4111,9 +4110,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>30</v>
@@ -4149,9 +4148,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>29</v>
@@ -4187,9 +4186,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>32</v>
@@ -4225,9 +4224,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -4263,9 +4262,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>34</v>
@@ -4301,9 +4300,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -4339,9 +4338,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
@@ -4378,7 +4377,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K30">
+  <sortState ref="A2:K30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
